--- a/src/Components/Navbar/assets/employee_upload_template.xlsx
+++ b/src/Components/Navbar/assets/employee_upload_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>employee_id</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>DOJ</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>uan_number</t>
+  </si>
+  <si>
+    <t>esic_number</t>
+  </si>
+  <si>
+    <t>bank_account_number</t>
+  </si>
+  <si>
+    <t>ifsc_code</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -48,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,65 +86,111 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.25"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,9 +206,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,61 +220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,65 +443,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,12 +476,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,141 +558,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,53 +1011,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42857142857143" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.57142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.57142857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Components/Navbar/assets/employee_upload_template.xlsx
+++ b/src/Components/Navbar/assets/employee_upload_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>employee_id</t>
   </si>
@@ -31,7 +31,13 @@
     <t>gender</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>base_location</t>
+  </si>
+  <si>
+    <t>division</t>
   </si>
   <si>
     <t>aadhar_card_number</t>
@@ -73,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,6 +97,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -98,60 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,29 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,21 +221,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -244,37 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,145 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,9 +446,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,21 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -527,11 +535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,40 +564,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -600,88 +606,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,10 +1017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1023,23 +1029,23 @@
     <col min="2" max="2" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.57142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.14285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.57142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.4285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.71428571428571" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="8" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.57142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,6 +1096,12 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
